--- a/prediccion.xlsx
+++ b/prediccion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,400 +434,880 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1383</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>1408</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>1742</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>2223</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2236</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>3946</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>3947</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>4095</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>4148</v>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>coeficientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>CitizenDesc_Eligible NonCitizen</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B2" t="n">
+        <v>-0.1672791886380345</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.1672791886380345</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.1672791886380345</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.1672791886380345</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1672791886380345</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.1672791886380345</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.1672791886380345</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.1672791886380345</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.1672791886380345</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1672791886380345</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14629096554940.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>CitizenDesc_Non-Citizen</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DepID_9</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="B3" t="n">
+        <v>-0.1053838033875092</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.1053838033875092</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1053838033875092</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.489124209370937</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.1053838033875092</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.1053838033875092</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.1053838033875092</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.1053838033875092</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.1053838033875092</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.489124209370937</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9369977142826.219</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CitizenDesc_US Citizen</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1993036536929826</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1993036536929826</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1993036536929826</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5.017469481720841</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1993036536929826</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1993036536929826</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1993036536929826</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1993036536929826</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1993036536929826</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-5.017469481720841</v>
+      </c>
+      <c r="L4" t="n">
+        <v>17232936614768.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>EmpSatisfaction</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="B5" t="n">
+        <v>0.1307927838117151</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1307927838117151</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.06780716936873</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1307927838117151</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1.06780716936873</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1307927838117151</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1307927838117151</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1307927838117151</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1.06780716936873</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1307927838117151</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3156685430625201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>EngagementSurvey</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>FromDiversityJobFairID</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MaritalDesc_Widowed</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="B6" t="n">
+        <v>-1.801492891961479</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.801492891961479</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8165885184440625</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.7635552913865009</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8165885184440625</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7158930795823111</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1.801492891961479</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.801492891961479</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8165885184440625</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.7635552913865009</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.09192749696093733</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>MaritalDesc_Divorced</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.679493888778252</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.679493888778252</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.3732048071421287</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.679493888778252</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.679493888778252</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.679493888778252</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.679493888778252</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.679493888778252</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3732048071421287</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.679493888778252</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.5792684047499642</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MaritalDesc_Married</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.8075091367391206</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.8075091367391206</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.8075091367391206</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.8075091367391206</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.8075091367391206</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.8075091367391206</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.8075091367391206</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.8075091367391206</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.8075091367391206</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.8075091367391206</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.09787550968695363</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MaritalDesc_Single</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.8484797372220423</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.8484797372220423</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.178578528314702</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.8484797372220423</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.8484797372220423</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.8484797372220423</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.8484797372220423</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.8484797372220423</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.178578528314702</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.8484797372220423</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.09819861968648717</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>PayRate2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="B10" t="n">
+        <v>-1.153127049667468</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.153127049667468</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.7745116602751553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.6483065304777178</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.7745116602751553</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.3958962708828427</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1.153127049667468</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.153127049667468</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.7745116602751553</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.6483065304777178</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5487258199867339</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RaceDesc_Asian</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3057328651885447</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.3057328651885447</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3057328651885447</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.3057328651885447</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.3057328651885447</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.3057328651885447</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.3057328651885447</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.3057328651885447</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.3057328651885447</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.270829256067392</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2346165273534381</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RaceDesc_Black or African American</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.413691841347295</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.413691841347295</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.413691841347295</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.413691841347295</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.413691841347295</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.413691841347295</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.413691841347295</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.413691841347295</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.413691841347295</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.413691841347295</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2369936461745275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>RaceDesc_Two or more races</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RecruitmentSource_Internet Search</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>RecruitmentSource_Newspager/Magazine</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>RecruitmentSource_Other</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>RecruitmentSource_Social Networks - Facebook Twitter etc</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>RecruitmentSource_Word of Mouth</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>State_AZ</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>State_CO</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>State_CT</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>State_KY</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>State_TN</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="B13" t="n">
+        <v>3.839838655758291</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.839838655758291</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.839838655758291</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.2604276089830967</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.839838655758291</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.839838655758291</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.839838655758291</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.839838655758291</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.839838655758291</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.2604276089830967</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.5415236490595625</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RaceDesc_White</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.430321006563975</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.430321006563975</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.430321006563975</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6991437554303113</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.430321006563975</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1.430321006563975</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-1.430321006563975</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1.430321006563975</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1.430321006563975</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1.430321006563975</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.01337406648466304</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>State_MA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3631692331295312</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.2148652442933058</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>State_Others</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2050616035707798</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.2050616035707798</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.2050616035707798</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.2050616035707798</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.2050616035707798</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.2050616035707798</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.2050616035707798</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.2050616035707798</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.2050616035707798</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.2050616035707798</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.1419757904173976</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>antiguedad_dias</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="B17" t="n">
+        <v>0.7028532253089749</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.130638196113472</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7902612121320091</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.130638196113472</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.118298245032573</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.130638196113472</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-1.256114008783734</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1.256114008783734</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-2.029417609853401</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-1.574896078373623</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1932510218221399</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>avg_perf</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="B18" t="n">
+        <v>-0.1063153708925381</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1614306153035703</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3387440399313336</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.299793382020508</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02654570933740879</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.637952406953171</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5912361991801832</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1321731879230181</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4376410342441129</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-1.766824985885312</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.09392555329975141</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>dias_lst_mov</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="B19" t="n">
+        <v>0.2237687858745448</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9013283960117907</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.2018499252216</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.073213403493416</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-2.34563484209272</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.2018499252216</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.2018499252216</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.2018499252216</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2359670767280795</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.01797916013187022</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.118988037109375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>edad_dias</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>level2_20-30</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="B20" t="n">
+        <v>0.7225671673774576</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.159731196370317</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.2318721985354452</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2124920352021348</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.624013931311577</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.6590769769264643</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7279505460811551</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.7279505460811551</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.1067423219271174</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-2.061177960304436</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.09832763671875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>perf_2022</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>position_Accountant I</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>position_Administrative Assistant</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>position_BI Developer</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>position_Database Administrator</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>position_IT Manager - DB</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>position_IT Support</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>position_Network Engineer</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>position_Shared Services Manager</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>position_Sr. Accountant</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>position_Sr. DBA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1289</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3286</v>
-      </c>
-      <c r="V2" t="n">
-        <v>39.93719944480101</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2759</v>
-      </c>
-      <c r="X2" t="n">
-        <v>22444</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12.68224405213199</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.38716508485722</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-1.44118060986779</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.145040694904722</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.403109530475571</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.009816385758812666</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.975540219579991</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-3.556176058442345</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02019329578490947</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-2.652126356778653</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.76259283719987</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-2.933409611298848</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.675723809277461</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.884348236538147</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-2.863843214844921</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-1.203885307194714</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5.982173225427341</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.2801907071362728</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.8478941794687155</v>
-      </c>
-      <c r="T3" t="n">
-        <v>6.060631414161099</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.001298632825421379</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.00494693396556605</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-0.0001665104468769535</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-3.770234915875604e-05</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.705820397546427</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.03096468273522402</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2.599819738997001</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.124869555137342</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-3.353092116591836</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-2.623126413747451</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-2.223646169401426</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-1.527243026724028</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.5549864240166615</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2.462805570965291</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>-2.042151332005418</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>-2.106779030476389</v>
+      <c r="B21" t="n">
+        <v>0.06103297262287024</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.214114801973351</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.290375819375155</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.337197939007603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5890466565521253</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1519370319435844</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.318891440180775</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.6078114626099205</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-2.201837750949363</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-2.422170375001968</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.593994140625</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>position_Production Technician I</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.1451018636548</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.1451018636548</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.1451018636548</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.1451018636548</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.1451018636548</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.8732847546054282</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.1451018636548</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.1451018636548</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.1451018636548</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.1451018636548</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.177734375</v>
       </c>
     </row>
   </sheetData>
